--- a/doc/ue_camera.xlsx
+++ b/doc/ue_camera.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EC26C6-2366-404D-972D-410E1CD0254C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="基本原理" sheetId="1" r:id="rId1"/>
+    <sheet name="APlayerCameraManager_tick调用顺序" sheetId="2" r:id="rId2"/>
+    <sheet name="APlayerCameraManager创建" sheetId="3" r:id="rId3"/>
+    <sheet name="APlayerCameraManager销毁" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
   <si>
     <t>LocalPlayer-&gt;PlayerController里面的PlayerCameraManager怎么和玩家身上的CameraComponent结合？？！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,14 +38,289 @@
   </si>
   <si>
     <t>PlayerCameramanager里面的Update会扫描玩家的CameraComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原理说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalPlayer-&gt;PlayerController-&gt;PlayerCameraManager仅仅和渲染有关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalPlayer-&gt;PlayerController-&gt;PlayerCameraManager的数据，完全都是通过对应Pawn上的CameraComponent计算得到的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际上的Camera就是玩家身上绑定的CameraComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tick的触发时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::Tick( ELevelTick TickType, float DeltaSeconds )</t>
+  </si>
+  <si>
+    <t>for( FConstPlayerControllerIterator Iterator = GetPlayerControllerIterator(); Iterator; ++Iterator )</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>if (APlayerController* PlayerController = Iterator-&gt;Get())</t>
+  </si>
+  <si>
+    <t>if (!bIsPaused || PlayerController-&gt;ShouldPerformFullTickWhenPaused())</t>
+  </si>
+  <si>
+    <t>PlayerController-&gt;UpdateCameraManager(DeltaSeconds);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>else if (PlayerController-&gt;PlayerCameraManager &amp;&amp; FCameraPhotographyManager::IsSupported(this))</t>
+  </si>
+  <si>
+    <t>PlayerController-&gt;PlayerCameraManager-&gt;UpdateCameraPhotographyOnly();</t>
+  </si>
+  <si>
+    <t>更新所有PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engine的Tick触发World的Tick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void APlayerController::UpdateCameraManager(float DeltaSeconds)</t>
+  </si>
+  <si>
+    <t>if (PlayerCameraManager != NULL)</t>
+  </si>
+  <si>
+    <t>PlayerCameraManager-&gt;UpdateCamera(DeltaSeconds);</t>
+  </si>
+  <si>
+    <t>PlayerController更新，其实就是更新其PlayerCameraManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void APlayerCameraManager::UpdateCamera(float DeltaTime)</t>
+  </si>
+  <si>
+    <t>PlayerCameraManager更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoUpdateCamera(DeltaTime);</t>
+  </si>
+  <si>
+    <t>更新，其实会去对应Actor的CameraComponent上获取数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图加载时：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>f (WorldContext.OwningGameInstance != NULL)</t>
+  </si>
+  <si>
+    <t>for(auto It = WorldContext.OwningGameInstance-&gt;GetLocalPlayerIterator(); It; ++It)</t>
+  </si>
+  <si>
+    <t>FString Error2;</t>
+  </si>
+  <si>
+    <t>if(!(*It)-&gt;SpawnPlayActor(URL.ToString(1),Error2,WorldContext.World()))</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogEngine, Fatal, TEXT("Couldn't spawn player: %s"), *Error2);</t>
+  </si>
+  <si>
+    <t>创建所有的LocalPlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool ULocalPlayer::SpawnPlayActor(const FString&amp; URL,FString&amp; OutError, UWorld* InWorld)</t>
+  </si>
+  <si>
+    <t>加载地图时创建LocalPlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建LocalPlayer时创建PlayerContrtoller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerController = InWorld-&gt;SpawnPlayActor(this, ROLE_SimulatedProxy, PlayerURL, UniqueId, OutError, GEngine-&gt;GetGamePlayers(InWorld).Find(this));</t>
+  </si>
+  <si>
+    <t>这里分客户端和服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单的理解就是下面这种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APlayerController* UWorld::SpawnPlayActor(UPlayer* NewPlayer, ENetRole RemoteRole, const FURL&amp; InURL, const FUniqueNetIdRepl&amp; UniqueId, FString&amp; Error, uint8 InNetPlayerIndex)</t>
+  </si>
+  <si>
+    <t>通过GameMode类去创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (AGameModeBase* const GameMode = GetAuthGameMode())</t>
+  </si>
+  <si>
+    <t>APlayerController* const NewPlayerController = GameMode-&gt;Login(NewPlayer, RemoteRole, *InURL.Portal, Options, UniqueId, Error);</t>
+  </si>
+  <si>
+    <t>APlayerController* AGameModeBase::Login(UPlayer* NewPlayer, ENetRole InRemoteRole, const FString&amp; Portal, const FString&amp; Options, const FUniqueNetIdRepl&amp; UniqueId, FString&amp; ErrorMessage)</t>
+  </si>
+  <si>
+    <t>通过gameMode设置的PlayerController类创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">return SpawnPlayerControllerCommon(InRemoteRole, SpawnLocation, SpawnRotation, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PlayerControllerClass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerControllerClass就是在gameMode里面设置的类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建PlayerController触发其初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AActor::PostActorConstruction()</t>
+  </si>
+  <si>
+    <t>void APlayerController::PostInitializeComponents()</t>
+  </si>
+  <si>
+    <t>SpawnPlayerCameraManager();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResetCameraMode(); </t>
+  </si>
+  <si>
+    <t>if ( GetNetMode() == NM_Client )</t>
+  </si>
+  <si>
+    <t>SpawnDefaultHUD();</t>
+  </si>
+  <si>
+    <t>！！！创建PlayerCameraManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void APlayerController::SpawnPlayerCameraManager()</t>
+  </si>
+  <si>
+    <t>创建函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (PlayerCameraManagerClass != NULL)</t>
+  </si>
+  <si>
+    <t>PlayerCameraManager = GetWorld()-&gt;SpawnActor&lt;APlayerCameraManager&gt;(PlayerCameraManagerClass, SpawnInfo);</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>PlayerCameraManager = GetWorld()-&gt;SpawnActor&lt;APlayerCameraManager&gt;(SpawnInfo);</t>
+  </si>
+  <si>
+    <t>可以用派生类，如无，则默认的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerCameraManager-&gt;InitializeFor(this);</t>
+  </si>
+  <si>
+    <t>初始化绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是Controller，而是Controller对应的Pawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在对应的PlayerController的销毁里面销毁的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void APlayerController::Destroyed()</t>
+  </si>
+  <si>
+    <t>if ( MyHUD != NULL )</t>
+  </si>
+  <si>
+    <t>MyHUD-&gt;Destroy();</t>
+  </si>
+  <si>
+    <t>MyHUD = NULL;</t>
+  </si>
+  <si>
+    <t>PlayerCameraManager-&gt;Destroy();</t>
+  </si>
+  <si>
+    <t>PlayerCameraManager = NULL;</t>
+  </si>
+  <si>
+    <t>销毁PlayerCameraManager</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +337,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -88,9 +380,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -114,13 +408,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>188886</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -419,27 +713,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -449,4 +775,559 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:K37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:M60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D27" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D33" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C36" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C48" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D50" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D59" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:J20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_camera.xlsx
+++ b/doc/ue_camera.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9D151B-5F52-456F-B663-12AFD59B2419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本原理" sheetId="1" r:id="rId1"/>
     <sheet name="APlayerCameraManager_tick调用顺序" sheetId="2" r:id="rId2"/>
     <sheet name="APlayerCameraManager创建" sheetId="3" r:id="rId3"/>
     <sheet name="APlayerCameraManager销毁" sheetId="4" r:id="rId4"/>
+    <sheet name="USpringArmComponent" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -319,7 +321,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -713,7 +715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -778,7 +780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -960,7 +962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:M60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1254,10 +1256,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B4:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -1330,4 +1332,20 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196E16F9-481D-4E34-AFD8-14BFD7ABCFDB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>